--- a/Name of Lecture Days.xlsx
+++ b/Name of Lecture Days.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b271ab1c0ac6a45/Desktop/TTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C318E344-6F26-4118-B4CA-BFEBBF7B8882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C318E344-6F26-4118-B4CA-BFEBBF7B8882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0FE852-61A5-4A11-998C-654556D6400D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{9E85378A-907D-44C1-9032-20721009B28F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{9E85378A-907D-44C1-9032-20721009B28F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
   <si>
     <t>Week 1, Lecture Day 2 | Git/GitHub</t>
   </si>
@@ -675,6 +676,96 @@
   </si>
   <si>
     <t>W2Lab - Apis and Postman</t>
+  </si>
+  <si>
+    <t>W1D1 - Introduction to Programming and Command Line</t>
+  </si>
+  <si>
+    <t>W1D2 - Git/GitHub</t>
+  </si>
+  <si>
+    <t>W1D3 - HTML</t>
+  </si>
+  <si>
+    <t>W2D1 - CSS 1</t>
+  </si>
+  <si>
+    <t>W2D2 - CSS 2</t>
+  </si>
+  <si>
+    <t>W2D3 - Bootstrap</t>
+  </si>
+  <si>
+    <t>W3D1 - Intro to JavaScript</t>
+  </si>
+  <si>
+    <t>W3D2 - JavaScript Functions 1</t>
+  </si>
+  <si>
+    <t>W3D3 - JavaScript Data Structures</t>
+  </si>
+  <si>
+    <t>W4D1 - JavaScript Functions 2</t>
+  </si>
+  <si>
+    <t>W4D2 - JavaScript OOP</t>
+  </si>
+  <si>
+    <t>W4D3 - JavaScript DOM Traversal</t>
+  </si>
+  <si>
+    <t>W5D1 &amp; 2  -  Group Project</t>
+  </si>
+  <si>
+    <t>W5D3 - Intro to Java and Data Types</t>
+  </si>
+  <si>
+    <t>W6D1&amp;2 - Java: Data Structures</t>
+  </si>
+  <si>
+    <t>W6D3 - Java: Control Flow</t>
+  </si>
+  <si>
+    <t>W7D1 - Java: Intro to Object Oriented Programming (OOP)</t>
+  </si>
+  <si>
+    <t>W7D2 - Java: OOP 2  -  Classes Objects and Methods</t>
+  </si>
+  <si>
+    <t>W7D3 - Java: OOP 3  -  Interfaces Method Overriding</t>
+  </si>
+  <si>
+    <t>W8D1 - JavaScript Callbacks</t>
+  </si>
+  <si>
+    <t>W8D2 - JavaScript Promises &amp; Async/Await</t>
+  </si>
+  <si>
+    <t>W8D3 - REST HTTP APIs</t>
+  </si>
+  <si>
+    <t>W9D2 - Databases and SQL Fundamentals</t>
+  </si>
+  <si>
+    <t>W9D3 - Relational Databases</t>
+  </si>
+  <si>
+    <t>W10D1 - Advanced Java: I/O Exception Handling</t>
+  </si>
+  <si>
+    <t>W10D2 - Intro to Spring Boot</t>
+  </si>
+  <si>
+    <t>W10D3 - Spring Boot Blog Project 1</t>
+  </si>
+  <si>
+    <t>W11D1 - Spring Boot Blog Project 2&amp;3</t>
+  </si>
+  <si>
+    <t>W11D2 - Advanced Java: Generics and Lambdas</t>
+  </si>
+  <si>
+    <t>W11D3 - Final Project Day</t>
   </si>
 </sst>
 </file>
@@ -840,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -921,6 +1012,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7815,8 +7907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7213F75-34EC-4FE4-8FED-15B4D2CFC5C7}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8174,4 +8266,309 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742A89A9-6B21-48C8-8163-15EF77E6EDF1}">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>